--- a/biology/Zoologie/Ambulyx_wildei/Ambulyx_wildei.xlsx
+++ b/biology/Zoologie/Ambulyx_wildei/Ambulyx_wildei.xlsx
@@ -425,7 +425,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:F5"/>
+  <dimension ref="A1:H5"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -456,6 +456,16 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>section</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
+          <t>sub_section</t>
+        </is>
+      </c>
+      <c r="H1" s="1" t="inlineStr">
+        <is>
           <t>article_source</t>
         </is>
       </c>
@@ -480,7 +490,9 @@
         </is>
       </c>
       <c r="E2" t="inlineStr"/>
-      <c r="F2" t="inlineStr">
+      <c r="F2" t="inlineStr"/>
+      <c r="G2" t="inlineStr"/>
+      <c r="H2" t="inlineStr">
         <is>
           <t xml:space="preserve">Ambulyx wildei est une espèce d'insectes lépidoptères de la famille des Sphingidae, sous-famille des Smerinthinae, tribu des Ambulycini, et du genre Ambulyx.
 </t>
@@ -511,7 +523,9 @@
           <t>Description</t>
         </is>
       </c>
-      <c r="F3" t="inlineStr">
+      <c r="F3" t="inlineStr"/>
+      <c r="G3" t="inlineStr"/>
+      <c r="H3" t="inlineStr">
         <is>
           <t xml:space="preserve">L'envergure est d'environ 110 mm. L'imago est semblable à Ambulyx substrigilis mais la ligne sub-marginale de la face supérieure de l'aile antérieure court très près le long de la marge. La face dorsale des femelles est d'un brun plus profond que pour les mâles.
 </t>
@@ -542,7 +556,9 @@
           <t>Distribution</t>
         </is>
       </c>
-      <c r="F4" t="inlineStr">
+      <c r="F4" t="inlineStr"/>
+      <c r="G4" t="inlineStr"/>
+      <c r="H4" t="inlineStr">
         <is>
           <t xml:space="preserve">Il est connu en Papouasie-Nouvelle-Guinée et en Australie (Queensland).
 </t>
@@ -573,9 +589,11 @@
           <t>Systématique</t>
         </is>
       </c>
-      <c r="F5" t="inlineStr">
-        <is>
-          <t>L'espèce Ambulyx wildei a été décrite par l'entomologiste anglais William Henry Miskink en 1891[1].
+      <c r="F5" t="inlineStr"/>
+      <c r="G5" t="inlineStr"/>
+      <c r="H5" t="inlineStr">
+        <is>
+          <t>L'espèce Ambulyx wildei a été décrite par l'entomologiste anglais William Henry Miskink en 1891.
 La localité type et la ville de Cairns dans le Queensland.</t>
         </is>
       </c>
